--- a/data_year/zb/国民经济核算/资金流量表(金融交易)/住户部门/资金运用.xlsx
+++ b/data_year/zb/国民经济核算/资金流量表(金融交易)/住户部门/资金运用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,831 +538,489 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>1155.93</v>
+        <v>5638.12372</v>
       </c>
       <c r="D2" t="n">
-        <v>241.91</v>
+        <v>7386.9976341804</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>10611.12</v>
+        <v>37715.0646894748</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>9973.25</v>
+        <v>44491.542902</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>1907.66</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+        <v>6498.48016323793</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-737.23539791568</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-456.530796920308</v>
+      </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>14117.9</v>
+        <v>68262.8233594748</v>
       </c>
       <c r="T2" t="n">
-        <v>873.87</v>
+        <v>5441.4451348925</v>
       </c>
       <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>2543.138323</v>
+        <v>6417</v>
       </c>
       <c r="D3" t="n">
-        <v>94.34</v>
+        <v>13823</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>14646.5369466841</v>
+        <v>48644</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>14251.7036840049</v>
+        <v>47690</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>1514.8014050105</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+        <v>2484</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-1840</v>
+      </c>
+      <c r="P3" t="n">
+        <v>606</v>
+      </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>19720.8540838068</v>
+        <v>74140</v>
       </c>
       <c r="T3" t="n">
-        <v>1319.06111680596</v>
+        <v>4961</v>
       </c>
       <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>3036.0411</v>
+        <v>13628</v>
       </c>
       <c r="D4" t="n">
-        <v>142.4785468467</v>
+        <v>14076</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>16122.3884066712</v>
+        <v>69335</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>16559.6931996589</v>
+        <v>58929</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>1306.7248296638</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+        <v>4493</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-408</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3097</v>
+      </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>23110.0111602622</v>
+        <v>97059</v>
       </c>
       <c r="T4" t="n">
-        <v>2048</v>
+        <v>3245</v>
       </c>
       <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>3515.8214634</v>
+        <v>13160.2305794948</v>
       </c>
       <c r="D5" t="n">
-        <v>139.42214437</v>
+        <v>13300.3870445678</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>15450.3564928123</v>
+        <v>48913.0858645606</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>15678.2397324632</v>
+        <v>55887.6184799641</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>511.1419539884</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+        <v>4881.3775338783</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-84.61757872379999</v>
+      </c>
+      <c r="P5" t="n">
+        <v>368.59609</v>
+      </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>21252.8493347475</v>
+        <v>90763.37211576461</v>
       </c>
       <c r="T5" t="n">
-        <v>1434.20286319225</v>
+        <v>3249.77996658342</v>
       </c>
       <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>4201.5604016</v>
+        <v>13262</v>
       </c>
       <c r="D6" t="n">
-        <v>1343.4676758775</v>
+        <v>20624</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>26372.1733724484</v>
+        <v>50328</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>21053.4569981216</v>
+        <v>44788</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>270.438487802216</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+        <v>2720</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2045</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3837</v>
+      </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>29913.011565248</v>
+        <v>88407</v>
       </c>
       <c r="T6" t="n">
-        <v>2127.59655213069</v>
+        <v>1132</v>
       </c>
       <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>4365</v>
+        <v>14446.4328808764</v>
       </c>
       <c r="D7" t="n">
-        <v>185</v>
+        <v>38001.309208065</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>27706</v>
+        <v>81184.7125223753</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>21284</v>
+        <v>46817.7538962317</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>1083</v>
+        <v>8155.960815</v>
       </c>
       <c r="O7" t="n">
-        <v>3416</v>
+        <v>4231.5537705976</v>
       </c>
       <c r="P7" t="n">
-        <v>1519</v>
+        <v>8927.414000000001</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>34370</v>
+        <v>122681.759449181</v>
       </c>
       <c r="T7" t="n">
-        <v>2524</v>
+        <v>2101.33487841</v>
       </c>
       <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>6221</v>
+        <v>16997.8225348732</v>
       </c>
       <c r="D8" t="n">
-        <v>1410</v>
+        <v>31238.2301632791</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>23119</v>
+        <v>47870.1498466124</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>10407</v>
+        <v>59333.7582357154</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>1912</v>
+        <v>4742.619938</v>
       </c>
       <c r="O8" t="n">
-        <v>8986</v>
+        <v>-2105.8737711296</v>
       </c>
       <c r="P8" t="n">
-        <v>3438</v>
+        <v>3975.2028</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>35098</v>
+        <v>118698.298866017</v>
       </c>
       <c r="T8" t="n">
-        <v>2741</v>
+        <v>4516.53896527857</v>
       </c>
       <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>8084</v>
+        <v>19914</v>
       </c>
       <c r="D9" t="n">
-        <v>-81</v>
+        <v>41068</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>50290</v>
+        <v>42482</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>46543</v>
+        <v>49603</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
-        <v>1748</v>
-      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>-5340</v>
+        <v>-1466</v>
       </c>
       <c r="P9" t="n">
-        <v>2936</v>
+        <v>6935</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>57302</v>
+        <v>121970</v>
       </c>
       <c r="T9" t="n">
-        <v>3413</v>
+        <v>2086</v>
       </c>
       <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>8396</v>
+        <v>22155.1785614413</v>
       </c>
       <c r="D10" t="n">
-        <v>54</v>
+        <v>26510.6688827392</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>35907</v>
+        <v>55347.5508619834</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>43160</v>
+        <v>77091.69449059819</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
-        <v>4507</v>
-      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
-        <v>2356</v>
+        <v>-366.3965296198</v>
       </c>
       <c r="P10" t="n">
-        <v>-1035</v>
+        <v>5600.58623969853</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>60796</v>
+        <v>135700.936183139</v>
       </c>
       <c r="T10" t="n">
-        <v>3358</v>
+        <v>1968.60580279382</v>
       </c>
       <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>5638.12372</v>
+        <v>22095.3344842563</v>
       </c>
       <c r="D11" t="n">
-        <v>7386.9976341804</v>
+        <v>33023.0273648528</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>37715.0646894748</v>
+        <v>86856.2821781688</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>44491.542902</v>
+        <v>102915.861016369</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
-        <v>6498.48016323793</v>
-      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>-737.23539791568</v>
+        <v>1550.1125492542</v>
       </c>
       <c r="P11" t="n">
-        <v>-456.530796920308</v>
+        <v>2380.1406</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>68262.8233594748</v>
+        <v>167907.525153915</v>
       </c>
       <c r="T11" t="n">
-        <v>5441.4451348925</v>
+        <v>3536.7206628502</v>
       </c>
       <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>6417</v>
+        <v>17845.2374313167</v>
       </c>
       <c r="D12" t="n">
-        <v>13823</v>
+        <v>24781.5580334694</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>48644</v>
+        <v>96423.273998912</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>47690</v>
+        <v>119935.646345711</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
-        <v>2484</v>
-      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>-1840</v>
+        <v>1445.79450515983</v>
       </c>
       <c r="P12" t="n">
-        <v>606</v>
+        <v>9828.633599999999</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>74140</v>
+        <v>183192.069665463</v>
       </c>
       <c r="T12" t="n">
-        <v>4961</v>
+        <v>6664.79563475944</v>
       </c>
       <c r="U12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="n">
-        <v>13628</v>
-      </c>
-      <c r="D13" t="n">
-        <v>14076</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>69335</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>58929</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
-        <v>4493</v>
-      </c>
-      <c r="O13" t="n">
-        <v>-408</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3097</v>
-      </c>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
-        <v>97059</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3245</v>
-      </c>
-      <c r="U13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>13160.2305794948</v>
-      </c>
-      <c r="D14" t="n">
-        <v>13300.3870445678</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>48913.0858645606</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>55887.6184799641</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>4881.3775338783</v>
-      </c>
-      <c r="O14" t="n">
-        <v>-84.61757872379999</v>
-      </c>
-      <c r="P14" t="n">
-        <v>368.59609</v>
-      </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>90763.37211576461</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3249.77996658342</v>
-      </c>
-      <c r="U14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>13262</v>
-      </c>
-      <c r="D15" t="n">
-        <v>20624</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>50328</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>44788</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>2720</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2045</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3837</v>
-      </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
-        <v>88407</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1132</v>
-      </c>
-      <c r="U15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
-        <v>14446.4328808764</v>
-      </c>
-      <c r="D16" t="n">
-        <v>38001.309208065</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>81184.7125223753</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>46817.7538962317</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>8155.960815</v>
-      </c>
-      <c r="O16" t="n">
-        <v>4231.5537705976</v>
-      </c>
-      <c r="P16" t="n">
-        <v>8927.414000000001</v>
-      </c>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
-        <v>122681.759449181</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2101.33487841</v>
-      </c>
-      <c r="U16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>16997.8225348732</v>
-      </c>
-      <c r="D17" t="n">
-        <v>31238.2301632791</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>47870.1498466124</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>59333.7582357154</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>4742.619938</v>
-      </c>
-      <c r="O17" t="n">
-        <v>-2105.8737711296</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3975.2028</v>
-      </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
-        <v>118698.298866017</v>
-      </c>
-      <c r="T17" t="n">
-        <v>4516.53896527857</v>
-      </c>
-      <c r="U17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>19914</v>
-      </c>
-      <c r="D18" t="n">
-        <v>41068</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>42482</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>49603</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>-1466</v>
-      </c>
-      <c r="P18" t="n">
-        <v>6935</v>
-      </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
-        <v>121970</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2086</v>
-      </c>
-      <c r="U18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
-        <v>22155.1785614413</v>
-      </c>
-      <c r="D19" t="n">
-        <v>26510.6688827392</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>55347.5508619834</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>77091.69449059819</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>-366.3965296198</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5600.58623969853</v>
-      </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
-        <v>135700.936183139</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1968.60580279382</v>
-      </c>
-      <c r="U19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
-        <v>22095.3344842563</v>
-      </c>
-      <c r="D20" t="n">
-        <v>33023.0273648528</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>86856.2821781688</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>102915.861016369</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="n">
-        <v>1550.1125492542</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2380.1406</v>
-      </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
-        <v>167907.525153915</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3536.7206628502</v>
-      </c>
-      <c r="U20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
